--- a/test-results/Vargranger_results.xlsx
+++ b/test-results/Vargranger_results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caw6/Desktop/UrbanizationCauseConsequence/test-results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\UrbanizationCauseConsequence\test-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21160" windowHeight="17620" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21165" windowHeight="17625" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GDPPerCapRealLCU_1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>Country</t>
   </si>
@@ -150,16 +150,22 @@
   </si>
   <si>
     <t>Belize</t>
+  </si>
+  <si>
+    <t>GDP -&gt; PctUrb chi2</t>
+  </si>
+  <si>
+    <t>PctUrb -&gt; GDP chi2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -201,6 +207,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -475,16 +484,16 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -518,7 +527,7 @@
         <v>6.9145976597441372E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -535,7 +544,7 @@
         <v>1.6553031549208512E-28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -552,7 +561,7 @@
         <v>4.269280757044952E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -569,7 +578,7 @@
         <v>0.11482234542107421</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -586,7 +595,7 @@
         <v>0.22984847733923625</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -603,7 +612,7 @@
         <v>8.4561953028473406E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -620,7 +629,7 @@
         <v>3.1776218561012877E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -637,7 +646,7 @@
         <v>1.6396839783930157E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -654,7 +663,7 @@
         <v>9.6742247948396372E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -671,7 +680,7 @@
         <v>2.9768947131828122E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -688,7 +697,7 @@
         <v>1.8903526915385053E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -705,7 +714,7 @@
         <v>8.5944196502155679E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -722,7 +731,7 @@
         <v>1.0527978741750191E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -739,7 +748,7 @@
         <v>0.10197823942135224</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -756,7 +765,7 @@
         <v>3.7968739586545387E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -773,7 +782,7 @@
         <v>0.91823861416084918</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -790,7 +799,7 @@
         <v>5.9281612824609023E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -807,7 +816,7 @@
         <v>0.47389680903151554</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -824,7 +833,7 @@
         <v>3.1230643981088307E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -841,7 +850,7 @@
         <v>0.50802673574366186</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -858,7 +867,7 @@
         <v>1.4373108531938526E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -891,16 +900,16 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -917,7 +926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -934,7 +943,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -951,7 +960,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -968,7 +977,7 @@
         <v>0.32017030520815265</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -985,7 +994,7 @@
         <v>1.6082834980301271E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1002,7 +1011,7 @@
         <v>0.81887624017161609</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1019,7 +1028,7 @@
         <v>0.18361854912748413</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1036,7 +1045,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1053,7 +1062,7 @@
         <v>0.14573810370465767</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>4.4848981415391903E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1087,7 +1096,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1113,7 @@
         <v>1.8162048458132043E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1121,7 +1130,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1138,7 +1147,7 @@
         <v>3.648511876179911E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>5.7617243467941474E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1188,15 +1197,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1213,7 +1222,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>0.16532563025249816</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1247,7 +1256,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1264,7 +1273,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1281,7 +1290,7 @@
         <v>4.6978945155838128E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>1.4947333923061763E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>2.363148296156652E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1332,7 +1341,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1349,7 +1358,7 @@
         <v>0.11515136321869272</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1366,7 +1375,7 @@
         <v>8.6867094812761829E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1392,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>1.8162048458132043E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1417,7 +1426,7 @@
         <v>1.5332160890220619E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1434,7 +1443,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>0.13084190342238822</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1468,7 +1477,7 @@
         <v>5.3020499009365469E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1485,7 +1494,7 @@
         <v>1.2143859159617991E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1502,7 +1511,7 @@
         <v>3.6156714385204651E-18</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1519,7 +1528,7 @@
         <v>1.3420668254474001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1549,35 +1558,35 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>2.0018993060144361E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>1.6082834980301271E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>0.81887624017161609</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>0.18361854912748413</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1696,7 +1705,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>4.4848981415391903E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>3.648511876179911E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>3.7968881946747594E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>5</v>
       </c>

--- a/test-results/Vargranger_results.xlsx
+++ b/test-results/Vargranger_results.xlsx
@@ -9,28 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21165" windowHeight="17625" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21165" windowHeight="17625" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GDPPerCapRealLCU_1" sheetId="1" r:id="rId1"/>
     <sheet name="GDPPerCapRealLCU_2" sheetId="2" r:id="rId2"/>
     <sheet name="GDPPerCapRealUSD" sheetId="3" r:id="rId3"/>
     <sheet name="GDPRealLCU" sheetId="4" r:id="rId4"/>
+    <sheet name="cum_Govt" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
   <si>
     <t>Country</t>
   </si>
@@ -156,6 +149,105 @@
   </si>
   <si>
     <t>PctUrb -&gt; GDP chi2</t>
+  </si>
+  <si>
+    <t>cum_Govt -&gt; PctUrb chi2</t>
+  </si>
+  <si>
+    <t>PctUrb -&gt; cum_Govt chi2</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Venezuela, RB</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Zambia</t>
   </si>
 </sst>
 </file>
@@ -1557,12 +1649,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
@@ -1813,4 +1906,622 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="2">
+        <v>116.76215944202019</v>
+      </c>
+      <c r="C2" s="2">
+        <v>4.4199690634033109E-26</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.34583818699846536</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.84120567109876365</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2">
+        <v>102.82456765729553</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4.6981711229677782E-23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.91289110816188934</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.63353150165939476</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2">
+        <v>72.848306739473145</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.5177183448304706E-16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.7520501354159883</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1531978481629567</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="2">
+        <v>57.667767402888558</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.0033325059937359E-13</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1.3213564060092864</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.51650092320211916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="2">
+        <v>34.854201293550467</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.7008866207920427E-8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>4.5557574889317376</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.10250140794329474</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2">
+        <v>31.494989971924269</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.4486044793926115E-7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>46.942785548923027</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6.4047714296395926E-11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2">
+        <v>27.582335438960968</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.0246415442336814E-6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>28.815183225303155</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.5317489884523327E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <v>27.38097097847583</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.1331768600113821E-6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.7694736027912539</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.41282281336979465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="2">
+        <v>27.170764617664418</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.258761434639437E-6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.8833481343333993</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.23653145751037502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="2">
+        <v>26.869276699712142</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.4635605622856722E-6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.90522315802600506</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.63596510785321114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="2">
+        <v>26.144564524249972</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.1027127479665662E-6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13.807594086856909</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.0039660797142953E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="2">
+        <v>25.673171659319969</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.6615927673305031E-6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2.3965071822470776</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.30172067973765798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2">
+        <v>24.692620705878198</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4.3457580353237854E-6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.2792452694655054</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2.626225255794614E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="2">
+        <v>23.58713825133097</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.5529742969390981E-6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17.265878145246745</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.7814030770811067E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="2">
+        <v>23.236393449968382</v>
+      </c>
+      <c r="C16" s="2">
+        <v>9.0008033366454049E-6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.1998481286077318</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1.6573933907186821E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="2">
+        <v>22.671577096590852</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.1937945323158705E-5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.98842674022958565</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.61005060263575062</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20.793777586986835</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3.0527312187638162E-5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>10.959870633290805</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.1695993928576895E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20.702486555494716</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3.195303857009905E-5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1.6948473049205717</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.42851752107360386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="2">
+        <v>18.914386167846828</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.812557546964244E-5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>24.372611479507981</v>
+      </c>
+      <c r="E20" s="2">
+        <v>5.0998178235018482E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2">
+        <v>18.718253358557757</v>
+      </c>
+      <c r="C21" s="2">
+        <v>8.6175324560002755E-5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>63.269179414885265</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.803034991941925E-15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2">
+        <v>18.638809117306792</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.9667286119957365E-5</v>
+      </c>
+      <c r="D22" s="2">
+        <v>5.1038460180008229</v>
+      </c>
+      <c r="E22" s="2">
+        <v>7.793165853374763E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2">
+        <v>18.260168355724602</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.0835646349993803E-4</v>
+      </c>
+      <c r="D23" s="2">
+        <v>3.5363892822702976</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.17064077874879652</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="2">
+        <v>16.94864016818542</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2.0876108703626447E-4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.10482523600859758</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.94893723746265257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="2">
+        <v>14.271995634081321</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7.9593119281712603E-4</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.26657350848911582</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.87521408476807683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2">
+        <v>13.583608427612489</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.1229409198723289E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.63779534152252149</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.72694993373374295</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2">
+        <v>12.503677085764139</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.9269081742168443E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>30.53022997110736</v>
+      </c>
+      <c r="E27" s="2">
+        <v>2.346630959830227E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10.599318579386818</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4.9932948841544022E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>7.6034986398118489</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.2331672428321174E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="2">
+        <v>9.8994234423026199</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.0854512203835408E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20065.354695057918</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="2">
+        <v>9.1280471924310405</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1.0420048416031827E-2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.5352219702027394</v>
+      </c>
+      <c r="E30" s="2">
+        <v>3.809733354091456E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2">
+        <v>9.117718324576316</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1.0474001265643495E-2</v>
+      </c>
+      <c r="D31" s="2">
+        <v>5.6312565516643787</v>
+      </c>
+      <c r="E31" s="2">
+        <v>5.9867093873728426E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2">
+        <v>5.9535474616641295</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5.0956969849810914E-2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>5.1872356792345116</v>
+      </c>
+      <c r="E32" s="2">
+        <v>7.4749119980463088E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="2">
+        <v>5.569942726813542</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6.1730856767082627E-2</v>
+      </c>
+      <c r="D33" s="2">
+        <v>6.1803039765349244</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4.5495039166936271E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2.3169668414621327</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.31396196821904138</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3.2516663199026326</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.1967476846071525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.40661535478068345</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.81602712969917668</v>
+      </c>
+      <c r="D35" s="2">
+        <v>12.184681559945659</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2.2601122925284003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E35">
+    <sortCondition descending="1" ref="B2:B35"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test-results/Vargranger_results.xlsx
+++ b/test-results/Vargranger_results.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\UrbanizationCauseConsequence\test-results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="21165" windowHeight="17625" firstSheet="3" activeTab="4"/>
   </bookViews>
@@ -17,13 +12,16 @@
     <sheet name="GDPPerCapRealUSD" sheetId="3" r:id="rId3"/>
     <sheet name="GDPRealLCU" sheetId="4" r:id="rId4"/>
     <sheet name="cum_Govt" sheetId="5" r:id="rId5"/>
+    <sheet name="cum_RegQual" sheetId="6" r:id="rId9"/>
+    <sheet name="cum_RuleLaw" sheetId="7" r:id="rId10"/>
+    <sheet name="cum_Ctrl" sheetId="8" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true" concurrentCalc="false"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="109">
   <si>
     <t>Country</t>
   </si>
@@ -248,12 +246,114 @@
   </si>
   <si>
     <t>Zambia</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>cum_RegQual -&gt; PctUrb chi2</t>
+  </si>
+  <si>
+    <t>PctUrb -&gt; cum_RegQual chi2</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>cum_RuleLaw -&gt; PctUrb chi2</t>
+  </si>
+  <si>
+    <t>PctUrb -&gt; cum_RuleLaw chi2</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Yemen, Rep.</t>
+  </si>
+  <si>
+    <t>cum_Ctrl -&gt; PctUrb chi2</t>
+  </si>
+  <si>
+    <t>PctUrb -&gt; cum_Ctrl chi2</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -285,9 +385,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -296,14 +396,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -569,23 +661,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="false" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="20.42578125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="20.42578125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="9.42578125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -619,7 +711,7 @@
         <v>6.9145976597441372E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -636,7 +728,7 @@
         <v>1.6553031549208512E-28</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -653,7 +745,7 @@
         <v>4.269280757044952E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -670,7 +762,7 @@
         <v>0.11482234542107421</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -687,7 +779,7 @@
         <v>0.22984847733923625</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -704,7 +796,7 @@
         <v>8.4561953028473406E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -721,7 +813,7 @@
         <v>3.1776218561012877E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -738,7 +830,7 @@
         <v>1.6396839783930157E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -755,7 +847,7 @@
         <v>9.6742247948396372E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -772,7 +864,7 @@
         <v>2.9768947131828122E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -789,7 +881,7 @@
         <v>1.8903526915385053E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -806,7 +898,7 @@
         <v>8.5944196502155679E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -823,7 +915,7 @@
         <v>1.0527978741750191E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -840,7 +932,7 @@
         <v>0.10197823942135224</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -857,7 +949,7 @@
         <v>3.7968739586545387E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -874,7 +966,7 @@
         <v>0.91823861416084918</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -891,7 +983,7 @@
         <v>5.9281612824609023E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -908,7 +1000,7 @@
         <v>0.47389680903151554</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -925,7 +1017,7 @@
         <v>3.1230643981088307E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -942,7 +1034,7 @@
         <v>0.50802673574366186</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -959,7 +1051,7 @@
         <v>1.4373108531938526E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -978,30 +1070,30 @@
     </row>
   </sheetData>
   <sortState ref="A2:E23">
-    <sortCondition descending="1" ref="B2:B23"/>
+    <sortCondition descending="true" ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="false" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="20.42578125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="20.42578125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="9.42578125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1127,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1144,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1069,7 +1161,7 @@
         <v>0.32017030520815265</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1086,7 +1178,7 @@
         <v>1.6082834980301271E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1103,7 +1195,7 @@
         <v>0.81887624017161609</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1120,7 +1212,7 @@
         <v>0.18361854912748413</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1229,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1154,7 +1246,7 @@
         <v>0.14573810370465767</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1171,7 +1263,7 @@
         <v>4.4848981415391903E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1188,7 +1280,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1205,7 +1297,7 @@
         <v>1.8162048458132043E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1314,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1239,7 +1331,7 @@
         <v>3.648511876179911E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1256,7 +1348,7 @@
         <v>5.7617243467941474E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1275,29 +1367,29 @@
     </row>
   </sheetData>
   <sortState ref="A2:E16">
-    <sortCondition descending="1" ref="B2:B16"/>
+    <sortCondition descending="true" ref="B2:B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="false" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="20.42578125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="9.42578125" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1331,7 +1423,7 @@
         <v>0.16532563025249816</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1348,7 +1440,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1365,7 +1457,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1382,7 +1474,7 @@
         <v>4.6978945155838128E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1399,7 +1491,7 @@
         <v>1.4947333923061763E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1416,7 +1508,7 @@
         <v>2.363148296156652E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1433,7 +1525,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1450,7 +1542,7 @@
         <v>0.11515136321869272</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1467,7 +1559,7 @@
         <v>8.6867094812761829E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1484,7 +1576,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1501,7 +1593,7 @@
         <v>1.8162048458132043E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1518,7 +1610,7 @@
         <v>1.5332160890220619E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1535,7 +1627,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1552,7 +1644,7 @@
         <v>0.13084190342238822</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1569,7 +1661,7 @@
         <v>5.3020499009365469E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1586,7 +1678,7 @@
         <v>1.2143859159617991E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1603,7 +1695,7 @@
         <v>3.6156714385204651E-18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1620,7 +1712,7 @@
         <v>1.3420668254474001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1639,30 +1731,30 @@
     </row>
   </sheetData>
   <sortState ref="A2:E20">
-    <sortCondition descending="1" ref="B2:B20"/>
+    <sortCondition descending="true" ref="B2:B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView showRuler="false" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="20.42578125" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="20.42578125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="9" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1696,7 +1788,7 @@
         <v>2.0018993060144361E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1713,7 +1805,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1730,7 +1822,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1839,7 @@
         <v>1.6082834980301271E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1764,7 +1856,7 @@
         <v>0.81887624017161609</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1781,7 +1873,7 @@
         <v>0.18361854912748413</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1798,7 +1890,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1815,7 +1907,7 @@
         <v>4.4848981415391903E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1924,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1849,7 +1941,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1866,7 +1958,7 @@
         <v>3.648511876179911E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1883,7 +1975,7 @@
         <v>3.7968881946747594E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1902,28 +1994,28 @@
     </row>
   </sheetData>
   <sortState ref="A2:E14">
-    <sortCondition descending="1" ref="B2:B14"/>
+    <sortCondition descending="true" ref="B2:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="22.7109375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="10.5703125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="22.7109375" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="9.28515625" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1940,279 +2032,279 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2">
-        <v>116.76215944202019</v>
+        <v>85.336286337580532</v>
       </c>
       <c r="C2" s="2">
-        <v>4.4199690634033109E-26</v>
+        <v>2.9475478815455143e-19</v>
       </c>
       <c r="D2" s="2">
-        <v>0.34583818699846536</v>
+        <v>133.51470631512862</v>
       </c>
       <c r="E2" s="2">
-        <v>0.84120567109876365</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>1.0177705901681415e-29</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
-        <v>102.82456765729553</v>
+        <v>10.244298575053108</v>
       </c>
       <c r="C3" s="2">
-        <v>4.6981711229677782E-23</v>
+        <v>0.0059631924965860492</v>
       </c>
       <c r="D3" s="2">
-        <v>0.91289110816188934</v>
+        <v>1.8873252750062206</v>
       </c>
       <c r="E3" s="2">
-        <v>0.63353150165939476</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.38919972412236292</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2">
-        <v>72.848306739473145</v>
+        <v>26.853232622146606</v>
       </c>
       <c r="C4" s="2">
-        <v>1.5177183448304706E-16</v>
+        <v>1.475348520389889e-06</v>
       </c>
       <c r="D4" s="2">
-        <v>3.7520501354159883</v>
+        <v>15.551703539326031</v>
       </c>
       <c r="E4" s="2">
-        <v>0.1531978481629567</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.00041974978691128377</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2">
-        <v>57.667767402888558</v>
+        <v>19.027710773050785</v>
       </c>
       <c r="C5" s="2">
-        <v>3.0033325059937359E-13</v>
+        <v>7.3821880502601193e-05</v>
       </c>
       <c r="D5" s="2">
-        <v>1.3213564060092864</v>
+        <v>6.2258042533378575</v>
       </c>
       <c r="E5" s="2">
-        <v>0.51650092320211916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.04447170535894629</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B6" s="2">
-        <v>34.854201293550467</v>
+        <v>19.676449848942866</v>
       </c>
       <c r="C6" s="2">
-        <v>2.7008866207920427E-8</v>
+        <v>5.3371966354977858e-05</v>
       </c>
       <c r="D6" s="2">
-        <v>4.5557574889317376</v>
+        <v>173.88403266588554</v>
       </c>
       <c r="E6" s="2">
-        <v>0.10250140794329474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>1.7440625677225668e-38</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2">
-        <v>31.494989971924269</v>
+        <v>14.973921906900831</v>
       </c>
       <c r="C7" s="2">
-        <v>1.4486044793926115E-7</v>
+        <v>0.00056034328481470311</v>
       </c>
       <c r="D7" s="2">
-        <v>46.942785548923027</v>
+        <v>8.6287578949439325</v>
       </c>
       <c r="E7" s="2">
-        <v>6.4047714296395926E-11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.013374853393791842</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B8" s="2">
-        <v>27.582335438960968</v>
+        <v>28.59118614345789</v>
       </c>
       <c r="C8" s="2">
-        <v>1.0246415442336814E-6</v>
+        <v>6.1873233576540923e-07</v>
       </c>
       <c r="D8" s="2">
-        <v>28.815183225303155</v>
+        <v>5.3469847426741381</v>
       </c>
       <c r="E8" s="2">
-        <v>5.5317489884523327E-7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.069010792654278799</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2">
-        <v>27.38097097847583</v>
+        <v>17.820962109912216</v>
       </c>
       <c r="C9" s="2">
-        <v>1.1331768600113821E-6</v>
+        <v>0.00013496689187738494</v>
       </c>
       <c r="D9" s="2">
-        <v>1.7694736027912539</v>
+        <v>15.280738899020378</v>
       </c>
       <c r="E9" s="2">
-        <v>0.41282281336979465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.00048065084303308665</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2">
-        <v>27.170764617664418</v>
+        <v>37.159060363229074</v>
       </c>
       <c r="C10" s="2">
-        <v>1.258761434639437E-6</v>
+        <v>8.531247977638772e-09</v>
       </c>
       <c r="D10" s="2">
-        <v>2.8833481343333993</v>
+        <v>14.754818896988715</v>
       </c>
       <c r="E10" s="2">
-        <v>0.23653145751037502</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.00062521845050105083</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2">
-        <v>26.869276699712142</v>
+        <v>27.723249114998907</v>
       </c>
       <c r="C11" s="2">
-        <v>1.4635605622856722E-6</v>
+        <v>9.5493309405652414e-07</v>
       </c>
       <c r="D11" s="2">
-        <v>0.90522315802600506</v>
+        <v>15.808172279365056</v>
       </c>
       <c r="E11" s="2">
-        <v>0.63596510785321114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.00036923172142176947</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2">
-        <v>26.144564524249972</v>
+        <v>39.725725077092648</v>
       </c>
       <c r="C12" s="2">
-        <v>2.1027127479665662E-6</v>
+        <v>2.3641139448421244e-09</v>
       </c>
       <c r="D12" s="2">
-        <v>13.807594086856909</v>
+        <v>203.3741726872853</v>
       </c>
       <c r="E12" s="2">
-        <v>1.0039660797142953E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>6.8842957618562762e-45</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>81</v>
       </c>
       <c r="B13" s="2">
-        <v>25.673171659319969</v>
+        <v>36.093816261796746</v>
       </c>
       <c r="C13" s="2">
-        <v>2.6615927673305031E-6</v>
+        <v>1.453206672657894e-08</v>
       </c>
       <c r="D13" s="2">
-        <v>2.3965071822470776</v>
+        <v>22.397523050845777</v>
       </c>
       <c r="E13" s="2">
-        <v>0.30172067973765798</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>1.3691141701074089e-05</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2">
-        <v>24.692620705878198</v>
+        <v>22.130087423662189</v>
       </c>
       <c r="C14" s="2">
-        <v>4.3457580353237854E-6</v>
+        <v>1.5649936291280494e-05</v>
       </c>
       <c r="D14" s="2">
-        <v>7.2792452694655054</v>
+        <v>13.269302755821286</v>
       </c>
       <c r="E14" s="2">
-        <v>2.626225255794614E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.0013140367675603191</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2">
-        <v>23.58713825133097</v>
+        <v>8.3715773597068619</v>
       </c>
       <c r="C15" s="2">
-        <v>7.5529742969390981E-6</v>
+        <v>0.015210205227747197</v>
       </c>
       <c r="D15" s="2">
-        <v>17.265878145246745</v>
+        <v>94.758848434843273</v>
       </c>
       <c r="E15" s="2">
-        <v>1.7814030770811067E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>2.6508033246921416e-21</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="B16" s="2">
-        <v>23.236393449968382</v>
+        <v>12.549266735091805</v>
       </c>
       <c r="C16" s="2">
-        <v>9.0008033366454049E-6</v>
+        <v>0.0018834814726408245</v>
       </c>
       <c r="D16" s="2">
-        <v>8.1998481286077318</v>
+        <v>2.3923871359274682</v>
       </c>
       <c r="E16" s="2">
-        <v>1.6573933907186821E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.30234287197088183</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>22.671577096590852</v>
+        <v>20.742168261873303</v>
       </c>
       <c r="C17" s="2">
-        <v>1.1937945323158705E-5</v>
+        <v>3.1325310941183231e-05</v>
       </c>
       <c r="D17" s="2">
-        <v>0.98842674022958565</v>
+        <v>1.3266534464332311</v>
       </c>
       <c r="E17" s="2">
-        <v>0.61005060263575062</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>0.51513477000828067</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2229,7 +2321,7 @@
         <v>4.1695993928576895E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -2246,7 +2338,7 @@
         <v>0.42851752107360386</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -2263,7 +2355,7 @@
         <v>5.0998178235018482E-6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2280,7 +2372,7 @@
         <v>1.803034991941925E-15</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -2297,7 +2389,7 @@
         <v>7.793165853374763E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2314,7 +2406,7 @@
         <v>0.17064077874879652</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2331,7 +2423,7 @@
         <v>0.94893723746265257</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -2348,7 +2440,7 @@
         <v>0.87521408476807683</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -2365,7 +2457,7 @@
         <v>0.72694993373374295</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -2382,7 +2474,7 @@
         <v>2.346630959830227E-7</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2399,7 +2491,7 @@
         <v>2.2331672428321174E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2416,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2433,7 +2525,7 @@
         <v>3.809733354091456E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31">
       <c r="A31" t="s">
         <v>53</v>
       </c>
@@ -2450,7 +2542,7 @@
         <v>5.9867093873728426E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32">
       <c r="A32" t="s">
         <v>66</v>
       </c>
@@ -2467,7 +2559,7 @@
         <v>7.4749119980463088E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -2484,7 +2576,7 @@
         <v>4.5495039166936271E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34">
       <c r="A34" t="s">
         <v>57</v>
       </c>
@@ -2501,7 +2593,7 @@
         <v>0.1967476846071525</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -2520,8 +2612,783 @@
     </row>
   </sheetData>
   <sortState ref="A2:E35">
-    <sortCondition descending="1" ref="B2:B35"/>
+    <sortCondition descending="true" ref="B2:B35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E18"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>79.557570546865463</v>
+      </c>
+      <c r="C2">
+        <v>5.3002097776321574e-18</v>
+      </c>
+      <c r="D2">
+        <v>46.75339500618373</v>
+      </c>
+      <c r="E2">
+        <v>7.0409177215067621e-11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3">
+        <v>3.9038941449616686</v>
+      </c>
+      <c r="C3">
+        <v>0.14199732316903665</v>
+      </c>
+      <c r="D3">
+        <v>17.259320798608012</v>
+      </c>
+      <c r="E3">
+        <v>0.0001787253301066939</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>5.0514314238558882</v>
+      </c>
+      <c r="C4">
+        <v>0.080001034597114801</v>
+      </c>
+      <c r="D4">
+        <v>7.3384346209982887</v>
+      </c>
+      <c r="E4">
+        <v>0.025496417917742556</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>24.47959649853874</v>
+      </c>
+      <c r="C5">
+        <v>4.83418382317845e-06</v>
+      </c>
+      <c r="D5">
+        <v>111.48066452371152</v>
+      </c>
+      <c r="E5">
+        <v>6.1984239801983812e-25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>31.551073572132736</v>
+      </c>
+      <c r="C6">
+        <v>1.4085472652044903e-07</v>
+      </c>
+      <c r="D6">
+        <v>6.6289630895315934</v>
+      </c>
+      <c r="E6">
+        <v>0.0363528910390691</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>9.2263497427669563</v>
+      </c>
+      <c r="C7">
+        <v>0.0099202726678619228</v>
+      </c>
+      <c r="D7">
+        <v>5.9425382970803744</v>
+      </c>
+      <c r="E7">
+        <v>0.051238240111126716</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8">
+        <v>57.774320691823959</v>
+      </c>
+      <c r="C8">
+        <v>2.8475126619250032e-13</v>
+      </c>
+      <c r="D8">
+        <v>84.510998681619071</v>
+      </c>
+      <c r="E8">
+        <v>4.4531754504885974e-19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9">
+        <v>21.828794875647873</v>
+      </c>
+      <c r="C9">
+        <v>1.8194386640080248e-05</v>
+      </c>
+      <c r="D9">
+        <v>8.9194576325295429</v>
+      </c>
+      <c r="E9">
+        <v>0.011565499237523006</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10">
+        <v>42.571181731298566</v>
+      </c>
+      <c r="C10">
+        <v>5.6988252909329404e-10</v>
+      </c>
+      <c r="D10">
+        <v>284.06477730959659</v>
+      </c>
+      <c r="E10">
+        <v>2.0707008209679036e-62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11">
+        <v>1.4753921932451703</v>
+      </c>
+      <c r="C11">
+        <v>0.47821440710877638</v>
+      </c>
+      <c r="D11">
+        <v>15.761291419185074</v>
+      </c>
+      <c r="E11">
+        <v>0.00037798890690308919</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>33.772143424583192</v>
+      </c>
+      <c r="C12">
+        <v>4.6395112733012528e-08</v>
+      </c>
+      <c r="D12">
+        <v>91.554057282783432</v>
+      </c>
+      <c r="E12">
+        <v>1.3161005272706355e-20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13">
+        <v>17.927394825033844</v>
+      </c>
+      <c r="C13">
+        <v>0.00012797221185231934</v>
+      </c>
+      <c r="D13">
+        <v>88.398478849930598</v>
+      </c>
+      <c r="E13">
+        <v>6.3754994617430564e-20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14">
+        <v>10.551271362884108</v>
+      </c>
+      <c r="C14">
+        <v>0.0051147043520127465</v>
+      </c>
+      <c r="D14">
+        <v>11.777051764245677</v>
+      </c>
+      <c r="E14">
+        <v>0.0027710585545599607</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15">
+        <v>13.769842362147756</v>
+      </c>
+      <c r="C15">
+        <v>0.0010230967915690597</v>
+      </c>
+      <c r="D15">
+        <v>1.5424715669683322</v>
+      </c>
+      <c r="E15">
+        <v>0.46244123781057334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>40.540566424286226</v>
+      </c>
+      <c r="C16">
+        <v>1.5729968551469625e-09</v>
+      </c>
+      <c r="D16">
+        <v>47.021112590442122</v>
+      </c>
+      <c r="E16">
+        <v>6.1587862926193044e-11</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17">
+        <v>9.5041142627409272</v>
+      </c>
+      <c r="C17">
+        <v>0.0086339158230407421</v>
+      </c>
+      <c r="D17">
+        <v>4.0063007373927277</v>
+      </c>
+      <c r="E17">
+        <v>0.13490959808145495</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>69.832829790655524</v>
+      </c>
+      <c r="C18">
+        <v>6.8547825598509199e-16</v>
+      </c>
+      <c r="D18">
+        <v>50.06945832156245</v>
+      </c>
+      <c r="E18">
+        <v>1.34139063366666e-11</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E17"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>51.818659604992718</v>
+      </c>
+      <c r="C2">
+        <v>5.5939816441717618e-12</v>
+      </c>
+      <c r="D2">
+        <v>110.95897026944257</v>
+      </c>
+      <c r="E2">
+        <v>8.0457354245318806e-25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>8.557397816923185</v>
+      </c>
+      <c r="C3">
+        <v>0.013860684378772857</v>
+      </c>
+      <c r="D3">
+        <v>8.3484591780506499</v>
+      </c>
+      <c r="E3">
+        <v>0.015387041435424523</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>17.266115041566081</v>
+      </c>
+      <c r="C4">
+        <v>0.00017811920856610186</v>
+      </c>
+      <c r="D4">
+        <v>0.13722122411586107</v>
+      </c>
+      <c r="E4">
+        <v>0.9336901769995023</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>8.5550990091869608</v>
+      </c>
+      <c r="C5">
+        <v>0.013876625062399235</v>
+      </c>
+      <c r="D5">
+        <v>49.735749359327031</v>
+      </c>
+      <c r="E5">
+        <v>1.5849634438892308e-11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>10.579252666120738</v>
+      </c>
+      <c r="C6">
+        <v>0.0050436445508443015</v>
+      </c>
+      <c r="D6">
+        <v>14.994127473196873</v>
+      </c>
+      <c r="E6">
+        <v>0.00055471075812511166</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7">
+        <v>18.187911293003708</v>
+      </c>
+      <c r="C7">
+        <v>0.00011234280003728713</v>
+      </c>
+      <c r="D7">
+        <v>1172.3584764526095</v>
+      </c>
+      <c r="E7">
+        <v>2.6643509638213161e-255</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <v>35.69482662237715</v>
+      </c>
+      <c r="C8">
+        <v>1.7740541945345255e-08</v>
+      </c>
+      <c r="D8">
+        <v>8.4363069322629833</v>
+      </c>
+      <c r="E8">
+        <v>0.014725811124123347</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9">
+        <v>26.35474011147744</v>
+      </c>
+      <c r="C9">
+        <v>1.8929576540605521e-06</v>
+      </c>
+      <c r="D9">
+        <v>4.4423614309581048</v>
+      </c>
+      <c r="E9">
+        <v>0.10848094804459982</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10">
+        <v>44.994034321978688</v>
+      </c>
+      <c r="C10">
+        <v>1.6969521159158259e-10</v>
+      </c>
+      <c r="D10">
+        <v>70.986372437724725</v>
+      </c>
+      <c r="E10">
+        <v>3.8503931849351234e-16</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11">
+        <v>9.1507607547137013</v>
+      </c>
+      <c r="C11">
+        <v>0.010302379640659389</v>
+      </c>
+      <c r="D11">
+        <v>20.938531083601852</v>
+      </c>
+      <c r="E11">
+        <v>2.8395907031256572e-05</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12">
+        <v>18.202799037098885</v>
+      </c>
+      <c r="C12">
+        <v>0.00011150963942603544</v>
+      </c>
+      <c r="D12">
+        <v>5.9826194476712455</v>
+      </c>
+      <c r="E12">
+        <v>0.050221617181203146</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>12.772307858540444</v>
+      </c>
+      <c r="C13">
+        <v>0.0016847233219721269</v>
+      </c>
+      <c r="D13">
+        <v>2.7942112554083804</v>
+      </c>
+      <c r="E13">
+        <v>0.24731174127913422</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14">
+        <v>26.86411333270371</v>
+      </c>
+      <c r="C14">
+        <v>1.4673438940279677e-06</v>
+      </c>
+      <c r="D14">
+        <v>11.155233975497122</v>
+      </c>
+      <c r="E14">
+        <v>0.0037815663088799352</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15">
+        <v>19.312700959853828</v>
+      </c>
+      <c r="C15">
+        <v>6.401773011483241e-05</v>
+      </c>
+      <c r="D15">
+        <v>0.61283223611674287</v>
+      </c>
+      <c r="E15">
+        <v>0.73608025943119137</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16">
+        <v>9.783418640945456</v>
+      </c>
+      <c r="C16">
+        <v>0.0075085769352723885</v>
+      </c>
+      <c r="D16">
+        <v>1.4036079112625217</v>
+      </c>
+      <c r="E16">
+        <v>0.49569029345841475</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>34.129192738095298</v>
+      </c>
+      <c r="C17">
+        <v>3.880967099031611e-08</v>
+      </c>
+      <c r="D17">
+        <v>24.025133339642629</v>
+      </c>
+      <c r="E17">
+        <v>6.0674831901622197e-06</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E9"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2">
+        <v>18.472608903568471</v>
+      </c>
+      <c r="C2">
+        <v>9.7437008854076945e-05</v>
+      </c>
+      <c r="D2">
+        <v>66.612792001615276</v>
+      </c>
+      <c r="E2">
+        <v>3.4293831114140655e-15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3">
+        <v>20.859157502274684</v>
+      </c>
+      <c r="C3">
+        <v>2.9545510601967607e-05</v>
+      </c>
+      <c r="D3">
+        <v>72.642302508385399</v>
+      </c>
+      <c r="E3">
+        <v>1.6823813057893355e-16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>11.672576728931745</v>
+      </c>
+      <c r="C4">
+        <v>0.0029196592507327443</v>
+      </c>
+      <c r="D4">
+        <v>5.7808628735480481</v>
+      </c>
+      <c r="E4">
+        <v>0.055552240161271638</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5">
+        <v>5.4586022560636707</v>
+      </c>
+      <c r="C5">
+        <v>0.065264885532440073</v>
+      </c>
+      <c r="D5">
+        <v>2.4790155309842694</v>
+      </c>
+      <c r="E5">
+        <v>0.28952669790105201</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6">
+        <v>37.50045379238145</v>
+      </c>
+      <c r="C6">
+        <v>7.1925008941149822e-09</v>
+      </c>
+      <c r="D6">
+        <v>9.8613581578865332</v>
+      </c>
+      <c r="E6">
+        <v>0.0072215975810320547</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7">
+        <v>27.803881309460849</v>
+      </c>
+      <c r="C7">
+        <v>9.171996617662706e-07</v>
+      </c>
+      <c r="D7">
+        <v>16.091896803664135</v>
+      </c>
+      <c r="E7">
+        <v>0.00032039741788694075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>22.148454696085537</v>
+      </c>
+      <c r="C8">
+        <v>1.5506870905374784e-05</v>
+      </c>
+      <c r="D8">
+        <v>10.336943246160114</v>
+      </c>
+      <c r="E8">
+        <v>0.00569326362578101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9">
+        <v>8.0079637693409893</v>
+      </c>
+      <c r="C9">
+        <v>0.018242853135421098</v>
+      </c>
+      <c r="D9">
+        <v>51.575662553053803</v>
+      </c>
+      <c r="E9">
+        <v>6.3166552748296165e-12</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>
--- a/test-results/Vargranger_results.xlsx
+++ b/test-results/Vargranger_results.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\UrbanizationCauseConsequence\test-results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21165" windowHeight="17625" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21165" windowHeight="17625" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="GDPPerCapRealLCU_1" sheetId="1" r:id="rId1"/>
     <sheet name="GDPPerCapRealLCU_2" sheetId="2" r:id="rId2"/>
     <sheet name="GDPPerCapRealUSD" sheetId="3" r:id="rId3"/>
     <sheet name="GDPRealLCU" sheetId="4" r:id="rId4"/>
-    <sheet name="cum_Govt" sheetId="5" r:id="rId5"/>
-    <sheet name="cum_RegQual" sheetId="6" r:id="rId9"/>
-    <sheet name="cum_RuleLaw" sheetId="7" r:id="rId10"/>
-    <sheet name="cum_Ctrl" sheetId="8" r:id="rId11"/>
+    <sheet name="cum_VA" sheetId="10" r:id="rId5"/>
+    <sheet name="cum_RuleLaw" sheetId="13" r:id="rId6"/>
+    <sheet name="cum_Govt" sheetId="14" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" fullCalcOnLoad="true" concurrentCalc="false"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t>Country</t>
   </si>
@@ -149,211 +153,124 @@
     <t>PctUrb -&gt; GDP chi2</t>
   </si>
   <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Congo, Dem. Rep.</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Philippines</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>cum_VA -&gt; PctUrb chi2</t>
+  </si>
+  <si>
+    <t>PctUrb -&gt; cum_VA chi2</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Rep.</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>cum_Rulelaw -&gt; PctUrb chi2</t>
+  </si>
+  <si>
+    <t>PctUrb -&gt; cum_RuleLaw chi2</t>
+  </si>
+  <si>
     <t>cum_Govt -&gt; PctUrb chi2</t>
   </si>
   <si>
     <t>PctUrb -&gt; cum_Govt chi2</t>
   </si>
   <si>
-    <t>Azerbaijan</t>
-  </si>
-  <si>
-    <t>Bangladesh</t>
-  </si>
-  <si>
-    <t>Belgium</t>
-  </si>
-  <si>
-    <t>Botswana</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>Burkina Faso</t>
-  </si>
-  <si>
-    <t>El Salvador</t>
-  </si>
-  <si>
-    <t>France</t>
+    <t>Estonia</t>
   </si>
   <si>
     <t>Germany</t>
   </si>
   <si>
-    <t>Ghana</t>
-  </si>
-  <si>
-    <t>Greece</t>
-  </si>
-  <si>
-    <t>Haiti</t>
-  </si>
-  <si>
-    <t>Hungary</t>
-  </si>
-  <si>
-    <t>Iceland</t>
-  </si>
-  <si>
-    <t>Indonesia</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>Kenya</t>
-  </si>
-  <si>
-    <t>Malawi</t>
-  </si>
-  <si>
-    <t>Mongolia</t>
+    <t>Korea, Rep.</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Mali</t>
   </si>
   <si>
     <t>Namibia</t>
-  </si>
-  <si>
-    <t>Nigeria</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>Togo</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>Venezuela, RB</t>
-  </si>
-  <si>
-    <t>Vietnam</t>
-  </si>
-  <si>
-    <t>Zambia</t>
-  </si>
-  <si>
-    <t>Afghanistan</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
-    <t>Croatia</t>
-  </si>
-  <si>
-    <t>Estonia</t>
-  </si>
-  <si>
-    <t>Korea, Rep.</t>
-  </si>
-  <si>
-    <t>Liberia</t>
-  </si>
-  <si>
-    <t>Mali</t>
-  </si>
-  <si>
-    <t>Niger</t>
-  </si>
-  <si>
-    <t>cum_RegQual -&gt; PctUrb chi2</t>
-  </si>
-  <si>
-    <t>PctUrb -&gt; cum_RegQual chi2</t>
-  </si>
-  <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>Ecuador</t>
-  </si>
-  <si>
-    <t>Guinea</t>
-  </si>
-  <si>
-    <t>Guyana</t>
-  </si>
-  <si>
-    <t>Netherlands</t>
-  </si>
-  <si>
-    <t>Nicaragua</t>
-  </si>
-  <si>
-    <t>Pakistan</t>
-  </si>
-  <si>
-    <t>Slovak Republic</t>
-  </si>
-  <si>
-    <t>cum_RuleLaw -&gt; PctUrb chi2</t>
-  </si>
-  <si>
-    <t>PctUrb -&gt; cum_RuleLaw chi2</t>
-  </si>
-  <si>
-    <t>Moldova</t>
-  </si>
-  <si>
-    <t>Philippines</t>
-  </si>
-  <si>
-    <t>Portugal</t>
-  </si>
-  <si>
-    <t>Russian Federation</t>
-  </si>
-  <si>
-    <t>Spain</t>
-  </si>
-  <si>
-    <t>Ukraine</t>
-  </si>
-  <si>
-    <t>Yemen, Rep.</t>
-  </si>
-  <si>
-    <t>cum_Ctrl -&gt; PctUrb chi2</t>
-  </si>
-  <si>
-    <t>PctUrb -&gt; cum_Ctrl chi2</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Lao PDR</t>
-  </si>
-  <si>
-    <t>Solomon Islands</t>
-  </si>
-  <si>
-    <t>Turkmenistan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -385,9 +302,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyAlignment="true">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -396,6 +313,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -661,23 +586,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showRuler="false" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="20.42578125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9.42578125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="20.42578125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -711,7 +636,7 @@
         <v>6.9145976597441372E-2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -728,7 +653,7 @@
         <v>1.6553031549208512E-28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -745,7 +670,7 @@
         <v>4.269280757044952E-2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -762,7 +687,7 @@
         <v>0.11482234542107421</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -779,7 +704,7 @@
         <v>0.22984847733923625</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -796,7 +721,7 @@
         <v>8.4561953028473406E-3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -813,7 +738,7 @@
         <v>3.1776218561012877E-6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -830,7 +755,7 @@
         <v>1.6396839783930157E-2</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -847,7 +772,7 @@
         <v>9.6742247948396372E-3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -864,7 +789,7 @@
         <v>2.9768947131828122E-3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -881,7 +806,7 @@
         <v>1.8903526915385053E-2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -898,7 +823,7 @@
         <v>8.5944196502155679E-2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -915,7 +840,7 @@
         <v>1.0527978741750191E-3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -932,7 +857,7 @@
         <v>0.10197823942135224</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -949,7 +874,7 @@
         <v>3.7968739586545387E-3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -966,7 +891,7 @@
         <v>0.91823861416084918</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -983,7 +908,7 @@
         <v>5.9281612824609023E-3</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1000,7 +925,7 @@
         <v>0.47389680903151554</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1017,7 +942,7 @@
         <v>3.1230643981088307E-4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1034,7 +959,7 @@
         <v>0.50802673574366186</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1051,7 +976,7 @@
         <v>1.4373108531938526E-3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1070,30 +995,30 @@
     </row>
   </sheetData>
   <sortState ref="A2:E23">
-    <sortCondition descending="true" ref="B2:B23"/>
+    <sortCondition descending="1" ref="B2:B23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showRuler="false" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="20.42578125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9.42578125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="20.42578125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1110,7 +1035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1127,7 +1052,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1144,7 +1069,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1161,7 +1086,7 @@
         <v>0.32017030520815265</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1103,7 @@
         <v>1.6082834980301271E-2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1195,7 +1120,7 @@
         <v>0.81887624017161609</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1137,7 @@
         <v>0.18361854912748413</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1154,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1246,7 +1171,7 @@
         <v>0.14573810370465767</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1263,7 +1188,7 @@
         <v>4.4848981415391903E-4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1280,7 +1205,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1297,7 +1222,7 @@
         <v>1.8162048458132043E-8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1314,7 +1239,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1256,7 @@
         <v>3.648511876179911E-4</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1348,7 +1273,7 @@
         <v>5.7617243467941474E-3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1367,29 +1292,29 @@
     </row>
   </sheetData>
   <sortState ref="A2:E16">
-    <sortCondition descending="true" ref="B2:B16"/>
+    <sortCondition descending="1" ref="B2:B16"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showRuler="false" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9.42578125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="20.42578125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.42578125" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1423,7 +1348,7 @@
         <v>0.16532563025249816</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1440,7 +1365,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1457,7 +1382,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1474,7 +1399,7 @@
         <v>4.6978945155838128E-2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1491,7 +1416,7 @@
         <v>1.4947333923061763E-3</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1508,7 +1433,7 @@
         <v>2.363148296156652E-3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1450,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1542,7 +1467,7 @@
         <v>0.11515136321869272</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1559,7 +1484,7 @@
         <v>8.6867094812761829E-5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1501,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1593,7 +1518,7 @@
         <v>1.8162048458132043E-8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1610,7 +1535,7 @@
         <v>1.5332160890220619E-3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1552,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1644,7 +1569,7 @@
         <v>0.13084190342238822</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1586,7 @@
         <v>5.3020499009365469E-6</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1603,7 @@
         <v>1.2143859159617991E-3</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1695,7 +1620,7 @@
         <v>3.6156714385204651E-18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1712,7 +1637,7 @@
         <v>1.3420668254474001E-2</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1731,30 +1656,30 @@
     </row>
   </sheetData>
   <sortState ref="A2:E20">
-    <sortCondition descending="true" ref="B2:B20"/>
+    <sortCondition descending="1" ref="B2:B20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showRuler="false" workbookViewId="0">
+    <sheetView showRuler="0" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="20.42578125" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="9.42578125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="20.42578125" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1788,7 +1713,7 @@
         <v>2.0018993060144361E-2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1805,7 +1730,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1822,7 +1747,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1839,7 +1764,7 @@
         <v>1.6082834980301271E-2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1781,7 @@
         <v>0.81887624017161609</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +1798,7 @@
         <v>0.18361854912748413</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1890,7 +1815,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1907,7 +1832,7 @@
         <v>4.4848981415391903E-4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1924,7 +1849,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1941,7 +1866,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1958,7 +1883,7 @@
         <v>3.648511876179911E-4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1975,7 +1900,7 @@
         <v>3.7968881946747594E-3</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1994,1401 +1919,1059 @@
     </row>
   </sheetData>
   <sortState ref="A2:E14">
-    <sortCondition descending="true" ref="B2:B14"/>
+    <sortCondition descending="1" ref="B2:B14"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="true" customWidth="true"/>
-    <col min="2" max="2" width="22.7109375" bestFit="true" customWidth="true"/>
-    <col min="3" max="3" width="10.5703125" bestFit="true" customWidth="true"/>
-    <col min="4" max="4" width="22.7109375" bestFit="true" customWidth="true"/>
-    <col min="5" max="5" width="9.28515625" bestFit="true" customWidth="true"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2">
-        <v>85.336286337580532</v>
+        <v>332.6889466047287</v>
       </c>
       <c r="C2" s="2">
-        <v>2.9475478815455143e-19</v>
+        <v>5.721542782249042E-73</v>
       </c>
       <c r="D2" s="2">
-        <v>133.51470631512862</v>
+        <v>77.762468756813291</v>
       </c>
       <c r="E2" s="2">
-        <v>1.0177705901681415e-29</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1.3004523981307276E-17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2">
-        <v>10.244298575053108</v>
+        <v>121.20287459591054</v>
       </c>
       <c r="C3" s="2">
-        <v>0.0059631924965860492</v>
+        <v>4.7987727727673383E-27</v>
       </c>
       <c r="D3" s="2">
-        <v>1.8873252750062206</v>
+        <v>435.13549473691381</v>
       </c>
       <c r="E3" s="2">
-        <v>0.38919972412236292</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>3.2473408647562666E-95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2">
-        <v>26.853232622146606</v>
+        <v>48.203562615119154</v>
       </c>
       <c r="C4" s="2">
-        <v>1.475348520389889e-06</v>
+        <v>3.4098036717630396E-11</v>
       </c>
       <c r="D4" s="2">
-        <v>15.551703539326031</v>
+        <v>2.0731865205022069</v>
       </c>
       <c r="E4" s="2">
-        <v>0.00041974978691128377</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>0.35466086347994313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>19.027710773050785</v>
+        <v>44.46531114494428</v>
       </c>
       <c r="C5" s="2">
-        <v>7.3821880502601193e-05</v>
+        <v>2.2104483261525639E-10</v>
       </c>
       <c r="D5" s="2">
-        <v>6.2258042533378575</v>
+        <v>158.68639298145905</v>
       </c>
       <c r="E5" s="2">
-        <v>0.04447170535894629</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>3.4808682648580375E-35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2">
-        <v>19.676449848942866</v>
+        <v>39.487217865767889</v>
       </c>
       <c r="C6" s="2">
-        <v>5.3371966354977858e-05</v>
+        <v>2.6635422346221392E-9</v>
       </c>
       <c r="D6" s="2">
-        <v>173.88403266588554</v>
+        <v>49.340291442289299</v>
       </c>
       <c r="E6" s="2">
-        <v>1.7440625677225668e-38</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1.9314872495647958E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B7" s="2">
-        <v>14.973921906900831</v>
+        <v>38.943572856136598</v>
       </c>
       <c r="C7" s="2">
-        <v>0.00056034328481470311</v>
+        <v>3.4955104232756868E-9</v>
       </c>
       <c r="D7" s="2">
-        <v>8.6287578949439325</v>
+        <v>180.11249636755326</v>
       </c>
       <c r="E7" s="2">
-        <v>0.013374853393791842</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>7.7458369863136721E-40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>28.59118614345789</v>
+        <v>37.114690944975337</v>
       </c>
       <c r="C8" s="2">
-        <v>6.1873233576540923e-07</v>
+        <v>8.7226262188023345E-9</v>
       </c>
       <c r="D8" s="2">
-        <v>5.3469847426741381</v>
+        <v>294.25885321091198</v>
       </c>
       <c r="E8" s="2">
-        <v>0.069010792654278799</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1.2661988060183281E-64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>36.630423186346889</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.1112318233578926E-8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.4416585189494295</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.4686460567201727E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2">
+        <v>33.898563316906802</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.355324351549962E-8</v>
+      </c>
+      <c r="D10" s="2">
+        <v>50.477214236134074</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1.0939870918253903E-11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="2">
+        <v>25.653964605065994</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.6872765758521701E-6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>21.420238656686109</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2.2317948710119307E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="2">
+        <v>25.238942907111777</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3.3069922960506423E-6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>2.0034170635487634</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.36725144408631072</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="2">
+        <v>21.150243043899536</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.5543657217198106E-5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>3.4416415745440831</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.1789192329976276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="2">
+        <v>16.685229713566514</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.3814880304542528E-4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>163.49141054383142</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.1498602156536612E-36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12.87120648403652</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.6034411475193753E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>30.881340075700457</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.9688027425666569E-7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11.522764647876102</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3.1467587506664079E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.7820062678022923</v>
+      </c>
+      <c r="E16" s="2">
+        <v>3.3674879537485623E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="2">
+        <v>10.756019476801157</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4.6170018332111788E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>21.234187506510054</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.4493721140095451E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2">
+        <v>10.585147404577583</v>
+      </c>
+      <c r="C18" s="2">
+        <v>5.0288009536223945E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>11.766636669282605</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2.7855266124100094E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10.221140092704445</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.0326430570820854E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>10.992695883103142</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4.1017238535506076E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="2">
-        <v>17.820962109912216</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.00013496689187738494</v>
-      </c>
-      <c r="D9" s="2">
-        <v>15.280738899020378</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.00048065084303308665</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="2">
-        <v>37.159060363229074</v>
-      </c>
-      <c r="C10" s="2">
-        <v>8.531247977638772e-09</v>
-      </c>
-      <c r="D10" s="2">
-        <v>14.754818896988715</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.00062521845050105083</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="2">
-        <v>27.723249114998907</v>
-      </c>
-      <c r="C11" s="2">
-        <v>9.5493309405652414e-07</v>
-      </c>
-      <c r="D11" s="2">
-        <v>15.808172279365056</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.00036923172142176947</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12" s="2">
-        <v>39.725725077092648</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.3641139448421244e-09</v>
-      </c>
-      <c r="D12" s="2">
-        <v>203.3741726872853</v>
-      </c>
-      <c r="E12" s="2">
-        <v>6.8842957618562762e-45</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="2">
-        <v>36.093816261796746</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.453206672657894e-08</v>
-      </c>
-      <c r="D13" s="2">
-        <v>22.397523050845777</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1.3691141701074089e-05</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="2">
-        <v>22.130087423662189</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.5649936291280494e-05</v>
-      </c>
-      <c r="D14" s="2">
-        <v>13.269302755821286</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.0013140367675603191</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="2">
-        <v>8.3715773597068619</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.015210205227747197</v>
-      </c>
-      <c r="D15" s="2">
-        <v>94.758848434843273</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2.6508033246921416e-21</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
+      <c r="B20" s="2">
+        <v>9.8376239985809661</v>
+      </c>
+      <c r="C20" s="2">
+        <v>7.3078073722521626E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>14.380138204553035</v>
+      </c>
+      <c r="E20" s="2">
+        <v>7.5403701301900389E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="2">
+        <v>9.6835336250805994</v>
+      </c>
+      <c r="C21" s="2">
+        <v>7.8930961035080724E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2.7883307703259144</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.24803996783851626</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2">
+        <v>9.6236664197058417</v>
+      </c>
+      <c r="C22" s="2">
+        <v>8.1329366437260277E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>26.593675515940731</v>
+      </c>
+      <c r="E22" s="2">
+        <v>1.6797967433488915E-6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2">
-        <v>12.549266735091805</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.0018834814726408245</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2.3923871359274682</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0.30234287197088183</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
+      <c r="B23" s="2">
+        <v>7.2513518471241696</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2.6631090669808212E-2</v>
+      </c>
+      <c r="D23" s="2">
+        <v>53.2554728043186</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2.7272252865184282E-12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6.4591704364866018</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3.9573909920520615E-2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8.0804229834893455</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1.7593751089009183E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.8441946340653317</v>
+      </c>
+      <c r="C25" s="2">
+        <v>8.8735316071344661E-2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>24.906072764049622</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.9058451047236398E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="2">
-        <v>20.742168261873303</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3.1325310941183231e-05</v>
-      </c>
-      <c r="D17" s="2">
-        <v>1.3266534464332311</v>
-      </c>
-      <c r="E17" s="2">
-        <v>0.51513477000828067</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B18" s="2">
-        <v>20.793777586986835</v>
-      </c>
-      <c r="C18" s="2">
-        <v>3.0527312187638162E-5</v>
-      </c>
-      <c r="D18" s="2">
-        <v>10.959870633290805</v>
-      </c>
-      <c r="E18" s="2">
-        <v>4.1695993928576895E-3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="2">
-        <v>20.702486555494716</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3.195303857009905E-5</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1.6948473049205717</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0.42851752107360386</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="2">
-        <v>18.914386167846828</v>
-      </c>
-      <c r="C20" s="2">
-        <v>7.812557546964244E-5</v>
-      </c>
-      <c r="D20" s="2">
-        <v>24.372611479507981</v>
-      </c>
-      <c r="E20" s="2">
-        <v>5.0998178235018482E-6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="2">
-        <v>18.718253358557757</v>
-      </c>
-      <c r="C21" s="2">
-        <v>8.6175324560002755E-5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>63.269179414885265</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1.803034991941925E-15</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="2">
-        <v>18.638809117306792</v>
-      </c>
-      <c r="C22" s="2">
-        <v>8.9667286119957365E-5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>5.1038460180008229</v>
-      </c>
-      <c r="E22" s="2">
-        <v>7.793165853374763E-2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="2">
-        <v>18.260168355724602</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.0835646349993803E-4</v>
-      </c>
-      <c r="D23" s="2">
-        <v>3.5363892822702976</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.17064077874879652</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="2">
-        <v>16.94864016818542</v>
-      </c>
-      <c r="C24" s="2">
-        <v>2.0876108703626447E-4</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.10482523600859758</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0.94893723746265257</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="2">
-        <v>14.271995634081321</v>
-      </c>
-      <c r="C25" s="2">
-        <v>7.9593119281712603E-4</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.26657350848911582</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0.87521408476807683</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
       <c r="B26" s="2">
-        <v>13.583608427612489</v>
+        <v>4.5277546532452106</v>
       </c>
       <c r="C26" s="2">
-        <v>1.1229409198723289E-3</v>
+        <v>0.10394666721429832</v>
       </c>
       <c r="D26" s="2">
-        <v>0.63779534152252149</v>
+        <v>59.624292303340695</v>
       </c>
       <c r="E26" s="2">
-        <v>0.72694993373374295</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="2">
-        <v>12.503677085764139</v>
-      </c>
-      <c r="C27" s="2">
-        <v>1.9269081742168443E-3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>30.53022997110736</v>
-      </c>
-      <c r="E27" s="2">
-        <v>2.346630959830227E-7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10.599318579386818</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4.9932948841544022E-3</v>
-      </c>
-      <c r="D28" s="2">
-        <v>7.6034986398118489</v>
-      </c>
-      <c r="E28" s="2">
-        <v>2.2331672428321174E-2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="2">
-        <v>9.8994234423026199</v>
-      </c>
-      <c r="C29" s="2">
-        <v>7.0854512203835408E-3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>20065.354695057918</v>
-      </c>
-      <c r="E29" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2">
-        <v>9.1280471924310405</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.0420048416031827E-2</v>
-      </c>
-      <c r="D30" s="2">
-        <v>6.5352219702027394</v>
-      </c>
-      <c r="E30" s="2">
-        <v>3.809733354091456E-2</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2">
-        <v>9.117718324576316</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1.0474001265643495E-2</v>
-      </c>
-      <c r="D31" s="2">
-        <v>5.6312565516643787</v>
-      </c>
-      <c r="E31" s="2">
-        <v>5.9867093873728426E-2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="2">
-        <v>5.9535474616641295</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5.0956969849810914E-2</v>
-      </c>
-      <c r="D32" s="2">
-        <v>5.1872356792345116</v>
-      </c>
-      <c r="E32" s="2">
-        <v>7.4749119980463088E-2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>11</v>
-      </c>
-      <c r="B33" s="2">
-        <v>5.569942726813542</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6.1730856767082627E-2</v>
-      </c>
-      <c r="D33" s="2">
-        <v>6.1803039765349244</v>
-      </c>
-      <c r="E33" s="2">
-        <v>4.5495039166936271E-2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>57</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2.3169668414621327</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0.31396196821904138</v>
-      </c>
-      <c r="D34" s="2">
-        <v>3.2516663199026326</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0.1967476846071525</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="2">
-        <v>0.40661535478068345</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.81602712969917668</v>
-      </c>
-      <c r="D35" s="2">
-        <v>12.184681559945659</v>
-      </c>
-      <c r="E35" s="2">
-        <v>2.2601122925284003E-3</v>
+        <v>1.1291442638999037E-13</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E35">
-    <sortCondition descending="true" ref="B2:B35"/>
+  <sortState ref="B2:E26">
+    <sortCondition descending="1" ref="B2:B26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E15"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45.040674951160327</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1.6578365253586661E-10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>37.14539171571019</v>
+      </c>
+      <c r="E2" s="2">
+        <v>8.5897529817391146E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37.326684475876391</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.8453703933417477E-9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13.562502420913404</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1.134854068349321E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="2">
+        <v>29.765765227253723</v>
+      </c>
+      <c r="C4" s="2">
+        <v>3.4391111017204998E-7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3.7070100076445112</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.1566870141506353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B2">
-        <v>79.557570546865463</v>
-      </c>
-      <c r="C2">
-        <v>5.3002097776321574e-18</v>
-      </c>
-      <c r="D2">
-        <v>46.75339500618373</v>
-      </c>
-      <c r="E2">
-        <v>7.0409177215067621e-11</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3">
-        <v>3.9038941449616686</v>
-      </c>
-      <c r="C3">
-        <v>0.14199732316903665</v>
-      </c>
-      <c r="D3">
-        <v>17.259320798608012</v>
-      </c>
-      <c r="E3">
-        <v>0.0001787253301066939</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4">
-        <v>5.0514314238558882</v>
-      </c>
-      <c r="C4">
-        <v>0.080001034597114801</v>
-      </c>
-      <c r="D4">
-        <v>7.3384346209982887</v>
-      </c>
-      <c r="E4">
-        <v>0.025496417917742556</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5">
-        <v>24.47959649853874</v>
-      </c>
-      <c r="C5">
-        <v>4.83418382317845e-06</v>
-      </c>
-      <c r="D5">
-        <v>111.48066452371152</v>
-      </c>
-      <c r="E5">
-        <v>6.1984239801983812e-25</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="2">
+        <v>29.685114569962025</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3.5806285798984985E-7</v>
+      </c>
+      <c r="D5" s="2">
+        <v>34.806358121085395</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.7662750928409901E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6">
-        <v>31.551073572132736</v>
-      </c>
-      <c r="C6">
-        <v>1.4085472652044903e-07</v>
-      </c>
-      <c r="D6">
-        <v>6.6289630895315934</v>
-      </c>
-      <c r="E6">
-        <v>0.0363528910390691</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>47</v>
+      </c>
+      <c r="B6" s="2">
+        <v>26.478725490054266</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.7791715114339578E-6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>12.198352110529918</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2.2447164800683496E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>9.2263497427669563</v>
-      </c>
-      <c r="C7">
-        <v>0.0099202726678619228</v>
-      </c>
-      <c r="D7">
-        <v>5.9425382970803744</v>
-      </c>
-      <c r="E7">
-        <v>0.051238240111126716</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>48</v>
+      </c>
+      <c r="B7" s="2">
+        <v>22.282300501130521</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1.45030693654174E-5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>69.190011136512908</v>
+      </c>
+      <c r="E7" s="2">
+        <v>9.4532246835122972E-16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2">
+        <v>19.893480560123862</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.7883466504018983E-5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5.6606409172187711</v>
+      </c>
+      <c r="E8" s="2">
+        <v>5.8993945522226157E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <v>17.077729673590511</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.9571229949878738E-4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>144.66552647085467</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3.8572702353452039E-32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B8">
-        <v>57.774320691823959</v>
-      </c>
-      <c r="C8">
-        <v>2.8475126619250032e-13</v>
-      </c>
-      <c r="D8">
-        <v>84.510998681619071</v>
-      </c>
-      <c r="E8">
-        <v>4.4531754504885974e-19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9">
-        <v>21.828794875647873</v>
-      </c>
-      <c r="C9">
-        <v>1.8194386640080248e-05</v>
-      </c>
-      <c r="D9">
-        <v>8.9194576325295429</v>
-      </c>
-      <c r="E9">
-        <v>0.011565499237523006</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10">
-        <v>42.571181731298566</v>
-      </c>
-      <c r="C10">
-        <v>5.6988252909329404e-10</v>
-      </c>
-      <c r="D10">
-        <v>284.06477730959659</v>
-      </c>
-      <c r="E10">
-        <v>2.0707008209679036e-62</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="2">
+        <v>16.364860106100423</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.7952186119803137E-4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>14.496371797319489</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.11463886439182E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11">
-        <v>1.4753921932451703</v>
-      </c>
-      <c r="C11">
-        <v>0.47821440710877638</v>
-      </c>
-      <c r="D11">
-        <v>15.761291419185074</v>
-      </c>
-      <c r="E11">
-        <v>0.00037798890690308919</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2">
+        <v>15.64895037561655</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.9982836605250848E-4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>66.221959558000307</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4.1695020487494954E-15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12">
-        <v>33.772143424583192</v>
-      </c>
-      <c r="C12">
-        <v>4.6395112733012528e-08</v>
-      </c>
-      <c r="D12">
-        <v>91.554057282783432</v>
-      </c>
-      <c r="E12">
-        <v>1.3161005272706355e-20</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2">
+        <v>14.721827586053095</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.3561737136027619E-4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>54.063685624839422</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1.82062218673105E-12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B13">
-        <v>17.927394825033844</v>
-      </c>
-      <c r="C13">
-        <v>0.00012797221185231934</v>
-      </c>
-      <c r="D13">
-        <v>88.398478849930598</v>
-      </c>
-      <c r="E13">
-        <v>6.3754994617430564e-20</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12.846407954697497</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.623446407643978E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>23.698000536101063</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.1456965180577392E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14">
-        <v>10.551271362884108</v>
-      </c>
-      <c r="C14">
-        <v>0.0051147043520127465</v>
-      </c>
-      <c r="D14">
-        <v>11.777051764245677</v>
-      </c>
-      <c r="E14">
-        <v>0.0027710585545599607</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9.9326091607754279</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.9688533468690896E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>3.7807488978412152</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.15101525075033581</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15">
-        <v>13.769842362147756</v>
-      </c>
-      <c r="C15">
-        <v>0.0010230967915690597</v>
-      </c>
-      <c r="D15">
-        <v>1.5424715669683322</v>
-      </c>
-      <c r="E15">
-        <v>0.46244123781057334</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16">
-        <v>40.540566424286226</v>
-      </c>
-      <c r="C16">
-        <v>1.5729968551469625e-09</v>
-      </c>
-      <c r="D16">
-        <v>47.021112590442122</v>
-      </c>
-      <c r="E16">
-        <v>6.1587862926193044e-11</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17">
-        <v>9.5041142627409272</v>
-      </c>
-      <c r="C17">
-        <v>0.0086339158230407421</v>
-      </c>
-      <c r="D17">
-        <v>4.0063007373927277</v>
-      </c>
-      <c r="E17">
-        <v>0.13490959808145495</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
         <v>25</v>
       </c>
-      <c r="B18">
-        <v>69.832829790655524</v>
-      </c>
-      <c r="C18">
-        <v>6.8547825598509199e-16</v>
-      </c>
-      <c r="D18">
-        <v>50.06945832156245</v>
-      </c>
-      <c r="E18">
-        <v>1.34139063366666e-11</v>
+      <c r="B15" s="2">
+        <v>6.6666993151279641</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3.5673411001510023E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.6189352585924173</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.3440703126493758E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B2:E15">
+    <sortCondition descending="1" ref="B2:B15"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E17"/>
+    </sheetView>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2">
+        <v>85.336286337580532</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.9475478815455143E-19</v>
+      </c>
+      <c r="D2" s="2">
+        <v>133.51470631512862</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.0177705901681415E-29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2">
+        <v>39.725725077092648</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.3641139448421244E-9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>203.3741726872853</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.8842957618562762E-45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="2">
+        <v>37.159060363229074</v>
+      </c>
+      <c r="C4" s="2">
+        <v>8.531247977638772E-9</v>
+      </c>
+      <c r="D4" s="2">
+        <v>14.754818896988715</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6.2521845050105083E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="2">
+        <v>36.093816261796746</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1.453206672657894E-8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>22.397523050845777</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1.3691141701074089E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="2">
+        <v>28.59118614345789</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.1873233576540923E-7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.3469847426741381</v>
+      </c>
+      <c r="E6" s="2">
+        <v>6.9010792654278799E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2">
+        <v>27.723249114998907</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.5493309405652414E-7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15.808172279365056</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.6923172142176947E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="2">
+        <v>26.853232622146606</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.475348520389889E-6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>15.551703539326031</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4.1974978691128377E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>75</v>
       </c>
-      <c r="B2">
-        <v>51.818659604992718</v>
-      </c>
-      <c r="C2">
-        <v>5.5939816441717618e-12</v>
-      </c>
-      <c r="D2">
-        <v>110.95897026944257</v>
-      </c>
-      <c r="E2">
-        <v>8.0457354245318806e-25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3">
-        <v>8.557397816923185</v>
-      </c>
-      <c r="C3">
-        <v>0.013860684378772857</v>
-      </c>
-      <c r="D3">
-        <v>8.3484591780506499</v>
-      </c>
-      <c r="E3">
-        <v>0.015387041435424523</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4">
-        <v>17.266115041566081</v>
-      </c>
-      <c r="C4">
-        <v>0.00017811920856610186</v>
-      </c>
-      <c r="D4">
-        <v>0.13722122411586107</v>
-      </c>
-      <c r="E4">
-        <v>0.9336901769995023</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5">
-        <v>8.5550990091869608</v>
-      </c>
-      <c r="C5">
-        <v>0.013876625062399235</v>
-      </c>
-      <c r="D5">
-        <v>49.735749359327031</v>
-      </c>
-      <c r="E5">
-        <v>1.5849634438892308e-11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6">
-        <v>10.579252666120738</v>
-      </c>
-      <c r="C6">
-        <v>0.0050436445508443015</v>
-      </c>
-      <c r="D6">
-        <v>14.994127473196873</v>
-      </c>
-      <c r="E6">
-        <v>0.00055471075812511166</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7">
-        <v>18.187911293003708</v>
-      </c>
-      <c r="C7">
-        <v>0.00011234280003728713</v>
-      </c>
-      <c r="D7">
-        <v>1172.3584764526095</v>
-      </c>
-      <c r="E7">
-        <v>2.6643509638213161e-255</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8">
-        <v>35.69482662237715</v>
-      </c>
-      <c r="C8">
-        <v>1.7740541945345255e-08</v>
-      </c>
-      <c r="D8">
-        <v>8.4363069322629833</v>
-      </c>
-      <c r="E8">
-        <v>0.014725811124123347</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9">
-        <v>26.35474011147744</v>
-      </c>
-      <c r="C9">
-        <v>1.8929576540605521e-06</v>
-      </c>
-      <c r="D9">
-        <v>4.4423614309581048</v>
-      </c>
-      <c r="E9">
-        <v>0.10848094804459982</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" s="2">
+        <v>22.130087423662189</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.5649936291280494E-5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>13.269302755821286</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1.3140367675603191E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10">
-        <v>44.994034321978688</v>
-      </c>
-      <c r="C10">
-        <v>1.6969521159158259e-10</v>
-      </c>
-      <c r="D10">
-        <v>70.986372437724725</v>
-      </c>
-      <c r="E10">
-        <v>3.8503931849351234e-16</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>76</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20.742168261873303</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3.1325310941183231E-5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1.3266534464332311</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.51513477000828067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11">
-        <v>9.1507607547137013</v>
-      </c>
-      <c r="C11">
-        <v>0.010302379640659389</v>
-      </c>
-      <c r="D11">
-        <v>20.938531083601852</v>
-      </c>
-      <c r="E11">
-        <v>2.8395907031256572e-05</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>33</v>
+      </c>
+      <c r="B11" s="2">
+        <v>19.676449848942866</v>
+      </c>
+      <c r="C11" s="2">
+        <v>5.3371966354977858E-5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>173.88403266588554</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.7440625677225668E-38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12">
-        <v>18.202799037098885</v>
-      </c>
-      <c r="C12">
-        <v>0.00011150963942603544</v>
-      </c>
-      <c r="D12">
-        <v>5.9826194476712455</v>
-      </c>
-      <c r="E12">
-        <v>0.050221617181203146</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>77</v>
+      </c>
+      <c r="B12" s="2">
+        <v>19.027710773050785</v>
+      </c>
+      <c r="C12" s="2">
+        <v>7.3821880502601193E-5</v>
+      </c>
+      <c r="D12" s="2">
+        <v>6.2258042533378575</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4.447170535894629E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13">
-        <v>12.772307858540444</v>
-      </c>
-      <c r="C13">
-        <v>0.0016847233219721269</v>
-      </c>
-      <c r="D13">
-        <v>2.7942112554083804</v>
-      </c>
-      <c r="E13">
-        <v>0.24731174127913422</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>78</v>
+      </c>
+      <c r="B13" s="2">
+        <v>17.820962109912216</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.3496689187738494E-4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>15.280738899020378</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4.8065084303308665E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14">
-        <v>26.86411333270371</v>
-      </c>
-      <c r="C14">
-        <v>1.4673438940279677e-06</v>
-      </c>
-      <c r="D14">
-        <v>11.155233975497122</v>
-      </c>
-      <c r="E14">
-        <v>0.0037815663088799352</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2">
+        <v>14.973921906900831</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5.6034328481470311E-4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.6287578949439325</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.3374853393791842E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15">
-        <v>19.312700959853828</v>
-      </c>
-      <c r="C15">
-        <v>6.401773011483241e-05</v>
-      </c>
-      <c r="D15">
-        <v>0.61283223611674287</v>
-      </c>
-      <c r="E15">
-        <v>0.73608025943119137</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>12.549266735091805</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.8834814726408245E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2.3923871359274682</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.30234287197088183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16">
-        <v>9.783418640945456</v>
-      </c>
-      <c r="C16">
-        <v>0.0075085769352723885</v>
-      </c>
-      <c r="D16">
-        <v>1.4036079112625217</v>
-      </c>
-      <c r="E16">
-        <v>0.49569029345841475</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10.244298575053108</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5.9631924965860492E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1.8873252750062206</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.38919972412236292</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17">
-        <v>34.129192738095298</v>
-      </c>
-      <c r="C17">
-        <v>3.880967099031611e-08</v>
-      </c>
-      <c r="D17">
-        <v>24.025133339642629</v>
-      </c>
-      <c r="E17">
-        <v>6.0674831901622197e-06</v>
+      <c r="B17" s="2">
+        <v>8.3715773597068619</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.5210205227747197E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>94.758848434843273</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2.6508033246921416E-21</v>
       </c>
     </row>
   </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2">
-        <v>18.472608903568471</v>
-      </c>
-      <c r="C2">
-        <v>9.7437008854076945e-05</v>
-      </c>
-      <c r="D2">
-        <v>66.612792001615276</v>
-      </c>
-      <c r="E2">
-        <v>3.4293831114140655e-15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3">
-        <v>20.859157502274684</v>
-      </c>
-      <c r="C3">
-        <v>2.9545510601967607e-05</v>
-      </c>
-      <c r="D3">
-        <v>72.642302508385399</v>
-      </c>
-      <c r="E3">
-        <v>1.6823813057893355e-16</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4">
-        <v>11.672576728931745</v>
-      </c>
-      <c r="C4">
-        <v>0.0029196592507327443</v>
-      </c>
-      <c r="D4">
-        <v>5.7808628735480481</v>
-      </c>
-      <c r="E4">
-        <v>0.055552240161271638</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5">
-        <v>5.4586022560636707</v>
-      </c>
-      <c r="C5">
-        <v>0.065264885532440073</v>
-      </c>
-      <c r="D5">
-        <v>2.4790155309842694</v>
-      </c>
-      <c r="E5">
-        <v>0.28952669790105201</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6">
-        <v>37.50045379238145</v>
-      </c>
-      <c r="C6">
-        <v>7.1925008941149822e-09</v>
-      </c>
-      <c r="D6">
-        <v>9.8613581578865332</v>
-      </c>
-      <c r="E6">
-        <v>0.0072215975810320547</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7">
-        <v>27.803881309460849</v>
-      </c>
-      <c r="C7">
-        <v>9.171996617662706e-07</v>
-      </c>
-      <c r="D7">
-        <v>16.091896803664135</v>
-      </c>
-      <c r="E7">
-        <v>0.00032039741788694075</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>22.148454696085537</v>
-      </c>
-      <c r="C8">
-        <v>1.5506870905374784e-05</v>
-      </c>
-      <c r="D8">
-        <v>10.336943246160114</v>
-      </c>
-      <c r="E8">
-        <v>0.00569326362578101</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9">
-        <v>8.0079637693409893</v>
-      </c>
-      <c r="C9">
-        <v>0.018242853135421098</v>
-      </c>
-      <c r="D9">
-        <v>51.575662553053803</v>
-      </c>
-      <c r="E9">
-        <v>6.3166552748296165e-12</v>
-      </c>
-    </row>
-  </sheetData>
+  <sortState ref="B2:E17">
+    <sortCondition descending="1" ref="B2:B17"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test-results/Vargranger_results.xlsx
+++ b/test-results/Vargranger_results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\UrbanizationCauseConsequence\test-results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/caw6/Desktop/UrbanizationCauseConsequence/test-results/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21165" windowHeight="17625" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15740" windowHeight="17620" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="GDPPerCapRealLCU_1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,15 @@
     <sheet name="cum_RuleLaw" sheetId="13" r:id="rId6"/>
     <sheet name="cum_Govt" sheetId="14" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -270,11 +278,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -589,20 +597,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -636,7 +644,7 @@
         <v>6.9145976597441372E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -653,7 +661,7 @@
         <v>1.6553031549208512E-28</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -670,7 +678,7 @@
         <v>4.269280757044952E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -687,7 +695,7 @@
         <v>0.11482234542107421</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -704,7 +712,7 @@
         <v>0.22984847733923625</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -721,7 +729,7 @@
         <v>8.4561953028473406E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -738,7 +746,7 @@
         <v>3.1776218561012877E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -755,7 +763,7 @@
         <v>1.6396839783930157E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -772,7 +780,7 @@
         <v>9.6742247948396372E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -789,7 +797,7 @@
         <v>2.9768947131828122E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -806,7 +814,7 @@
         <v>1.8903526915385053E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -823,7 +831,7 @@
         <v>8.5944196502155679E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -840,7 +848,7 @@
         <v>1.0527978741750191E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -857,7 +865,7 @@
         <v>0.10197823942135224</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -874,7 +882,7 @@
         <v>3.7968739586545387E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>22</v>
       </c>
@@ -891,7 +899,7 @@
         <v>0.91823861416084918</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -908,7 +916,7 @@
         <v>5.9281612824609023E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -925,7 +933,7 @@
         <v>0.47389680903151554</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -942,7 +950,7 @@
         <v>3.1230643981088307E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -959,7 +967,7 @@
         <v>0.50802673574366186</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -976,7 +984,7 @@
         <v>1.4373108531938526E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1005,20 +1013,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,7 +1043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1052,7 +1060,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1069,7 +1077,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1086,7 +1094,7 @@
         <v>0.32017030520815265</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>1.6082834980301271E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1120,7 +1128,7 @@
         <v>0.81887624017161609</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1137,7 +1145,7 @@
         <v>0.18361854912748413</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1154,7 +1162,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1179,7 @@
         <v>0.14573810370465767</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1196,7 @@
         <v>4.4848981415391903E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1205,7 +1213,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1222,7 +1230,7 @@
         <v>1.8162048458132043E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1264,7 @@
         <v>3.648511876179911E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1273,7 +1281,7 @@
         <v>5.7617243467941474E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1302,19 +1310,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,7 +1340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1348,7 +1357,7 @@
         <v>0.16532563025249816</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1399,7 +1408,7 @@
         <v>4.6978945155838128E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -1416,7 +1425,7 @@
         <v>1.4947333923061763E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1433,7 +1442,7 @@
         <v>2.363148296156652E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1467,7 +1476,7 @@
         <v>0.11515136321869272</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -1484,7 +1493,7 @@
         <v>8.6867094812761829E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1501,7 +1510,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>1.8162048458132043E-8</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>1.5332160890220619E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1552,7 +1561,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1569,7 +1578,7 @@
         <v>0.13084190342238822</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1586,7 +1595,7 @@
         <v>5.3020499009365469E-6</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1603,7 +1612,7 @@
         <v>1.2143859159617991E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1620,7 +1629,7 @@
         <v>3.6156714385204651E-18</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1637,7 +1646,7 @@
         <v>1.3420668254474001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1666,20 +1675,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1696,7 +1705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>2.0018993060144361E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>6.9145864734614773E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>1.6551288620674052E-28</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>1.6082834980301271E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>0.81887624017161609</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1798,7 +1807,7 @@
         <v>0.18361854912748413</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>3.1776216151676037E-6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>4.4848981415391903E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>9.6742135172666888E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1866,7 +1875,7 @@
         <v>1.0527975994344602E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>3.648511876179911E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>3.7968881946747594E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1929,18 +1938,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +1966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1974,7 +1983,7 @@
         <v>1.3004523981307276E-17</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1991,7 +2000,7 @@
         <v>3.2473408647562666E-95</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -2008,7 +2017,7 @@
         <v>0.35466086347994313</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2025,7 +2034,7 @@
         <v>3.4808682648580375E-35</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -2042,7 +2051,7 @@
         <v>1.9314872495647958E-11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>7.7458369863136721E-40</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2076,7 +2085,7 @@
         <v>1.2661988060183281E-64</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -2093,7 +2102,7 @@
         <v>1.4686460567201727E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -2110,7 +2119,7 @@
         <v>1.0939870918253903E-11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>62</v>
       </c>
@@ -2127,7 +2136,7 @@
         <v>2.2317948710119307E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -2144,7 +2153,7 @@
         <v>0.36725144408631072</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>64</v>
       </c>
@@ -2161,7 +2170,7 @@
         <v>0.1789192329976276</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2178,7 +2187,7 @@
         <v>3.1498602156536612E-36</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2195,7 +2204,7 @@
         <v>1.9688027425666569E-7</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>65</v>
       </c>
@@ -2212,7 +2221,7 @@
         <v>3.3674879537485623E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>66</v>
       </c>
@@ -2229,7 +2238,7 @@
         <v>2.4493721140095451E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>2.7855266124100094E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>4.1017238535506076E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2280,7 +2289,7 @@
         <v>7.5403701301900389E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>68</v>
       </c>
@@ -2297,7 +2306,7 @@
         <v>0.24803996783851626</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -2314,7 +2323,7 @@
         <v>1.6797967433488915E-6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>2.7272252865184282E-12</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2348,7 +2357,7 @@
         <v>1.7593751089009183E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -2365,7 +2374,7 @@
         <v>3.9058451047236398E-6</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2394,16 +2403,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2420,7 +2429,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2437,7 +2446,7 @@
         <v>8.5897529817391146E-9</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>1.134854068349321E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>0.1566870141506353</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2488,7 +2497,7 @@
         <v>2.7662750928409901E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -2505,7 +2514,7 @@
         <v>2.2447164800683496E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>48</v>
       </c>
@@ -2522,7 +2531,7 @@
         <v>9.4532246835122972E-16</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -2539,7 +2548,7 @@
         <v>5.8993945522226157E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -2556,7 +2565,7 @@
         <v>3.8572702353452039E-32</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -2573,7 +2582,7 @@
         <v>7.11463886439182E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -2590,7 +2599,7 @@
         <v>4.1695020487494954E-15</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -2607,7 +2616,7 @@
         <v>1.82062218673105E-12</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -2624,7 +2633,7 @@
         <v>7.1456965180577392E-6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>0.15101525075033581</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2674,12 +2683,12 @@
       <selection activeCell="B2" sqref="B2:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2713,7 +2722,7 @@
         <v>1.0177705901681415E-29</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -2730,7 +2739,7 @@
         <v>6.8842957618562762E-45</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -2747,7 +2756,7 @@
         <v>6.2521845050105083E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2764,7 +2773,7 @@
         <v>1.3691141701074089E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2781,7 +2790,7 @@
         <v>6.9010792654278799E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>3.6923172142176947E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>74</v>
       </c>
@@ -2815,7 +2824,7 @@
         <v>4.1974978691128377E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>75</v>
       </c>
@@ -2832,7 +2841,7 @@
         <v>1.3140367675603191E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>76</v>
       </c>
@@ -2849,7 +2858,7 @@
         <v>0.51513477000828067</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2866,7 +2875,7 @@
         <v>1.7440625677225668E-38</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>4.447170535894629E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -2900,7 +2909,7 @@
         <v>4.8065084303308665E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>79</v>
       </c>
@@ -2917,7 +2926,7 @@
         <v>1.3374853393791842E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -2934,7 +2943,7 @@
         <v>0.30234287197088183</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2951,7 +2960,7 @@
         <v>0.38919972412236292</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
